--- a/bd/MER/ModelagemBD/ModelagemFisica.xlsx
+++ b/bd/MER/ModelagemBD/ModelagemFisica.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bruno\Desktop\Projeto_ProVagas\bd\MER\ModelagemBD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FAAC22A6-7986-4509-8D46-44971C747CAD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FE082FB-D8C8-4371-9A8E-D6BC2CEC9B79}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{49616955-74A9-4DCD-839A-5AC96D81C1FF}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="116">
   <si>
     <t>TipoUsuario</t>
   </si>
@@ -111,9 +111,6 @@
     <t>IdTipoVaga</t>
   </si>
   <si>
-    <t>NumCandidatura</t>
-  </si>
-  <si>
     <t>DataInscricao</t>
   </si>
   <si>
@@ -270,12 +267,6 @@
     <t>NomeBeneficio</t>
   </si>
   <si>
-    <t>IdPessoa</t>
-  </si>
-  <si>
-    <t>CandidatoXAdministrador</t>
-  </si>
-  <si>
     <t>CPF</t>
   </si>
   <si>
@@ -285,9 +276,6 @@
     <t>234-234-234-23</t>
   </si>
   <si>
-    <t>NumVaga</t>
-  </si>
-  <si>
     <t>Profissional experiente em C#</t>
   </si>
   <si>
@@ -379,6 +367,18 @@
   </si>
   <si>
     <t>Santa Catarina</t>
+  </si>
+  <si>
+    <t>CNPJ</t>
+  </si>
+  <si>
+    <t>CNAE</t>
+  </si>
+  <si>
+    <t>xxxxxxxxxxxxxx</t>
+  </si>
+  <si>
+    <t>IdCandidato</t>
   </si>
 </sst>
 </file>
@@ -567,39 +567,6 @@
   <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
@@ -614,10 +581,43 @@
     <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -949,7 +949,7 @@
   <dimension ref="A1:N41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="I36" sqref="I36"/>
+      <selection activeCell="H41" sqref="H41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -964,812 +964,822 @@
     <col min="8" max="8" width="26.42578125" customWidth="1"/>
     <col min="9" max="9" width="21" customWidth="1"/>
     <col min="10" max="10" width="24.85546875" customWidth="1"/>
-    <col min="11" max="11" width="14.28515625" customWidth="1"/>
+    <col min="11" max="11" width="16.140625" customWidth="1"/>
     <col min="13" max="13" width="10.85546875" customWidth="1"/>
     <col min="17" max="17" width="10.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="D1" s="28" t="s">
+      <c r="B1" s="24"/>
+      <c r="D1" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="28"/>
-      <c r="G1" s="5" t="s">
+      <c r="E1" s="19"/>
+      <c r="G1" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
+      <c r="L1" s="27"/>
+      <c r="M1" s="27"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="E2" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="3">
+        <v>1</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="G2" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="H2" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="I2" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="J2" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="K2" s="15" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="13">
-        <v>1</v>
-      </c>
-      <c r="B3" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="14">
-        <v>1</v>
-      </c>
-      <c r="E3" s="14" t="s">
+      <c r="G3" s="4">
+        <v>1</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="M3" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="3">
+        <v>2</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="G3" s="15">
-        <v>1</v>
-      </c>
-      <c r="H3" s="15" t="s">
+      <c r="G4" s="4">
+        <v>2</v>
+      </c>
+      <c r="H4" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="I3" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="J3" s="15" t="s">
+      <c r="I4" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="J4" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="K3" s="15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="13">
-        <v>2</v>
-      </c>
-      <c r="B4" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="14">
-        <v>2</v>
-      </c>
-      <c r="E4" s="14" t="s">
+      <c r="K4" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="M4" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="3">
+        <v>3</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="G4" s="15">
-        <v>2</v>
-      </c>
-      <c r="H4" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="I4" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="J4" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="K4" s="15">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="13">
-        <v>3</v>
-      </c>
-      <c r="B5" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="14">
-        <v>3</v>
-      </c>
-      <c r="E5" s="14" t="s">
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D6" s="3">
+        <v>4</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="D6" s="14">
-        <v>4</v>
-      </c>
-      <c r="E6" s="14" t="s">
-        <v>45</v>
-      </c>
-    </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="6"/>
-      <c r="L8" s="6"/>
+      <c r="A8" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="16"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="16"/>
+      <c r="K8" s="16"/>
+      <c r="L8" s="16"/>
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="16" t="s">
+      <c r="A9" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="16" t="s">
+      <c r="C9" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="16" t="s">
+      <c r="D9" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="E9" s="16" t="s">
+      <c r="F9" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="F9" s="16" t="s">
+      <c r="G9" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="G9" s="16" t="s">
+      <c r="H9" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="H9" s="16" t="s">
+      <c r="I9" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="K9" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="L9" s="5" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" s="5">
+        <v>1</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E10" s="5">
+        <v>231</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="J10" s="5">
+        <v>1</v>
+      </c>
+      <c r="K10" s="5">
+        <v>1</v>
+      </c>
+      <c r="L10" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" s="5">
+        <v>2</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="E11" s="5">
+        <v>341</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="J11" s="5">
+        <v>1</v>
+      </c>
+      <c r="K11" s="5">
+        <v>2</v>
+      </c>
+      <c r="L11" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" s="5">
+        <v>3</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E12" s="5">
+        <v>234</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="J12" s="5">
+        <v>3</v>
+      </c>
+      <c r="K12" s="5">
+        <v>3</v>
+      </c>
+      <c r="L12" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" s="5">
+        <v>4</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="E13" s="5">
+        <v>543</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="J13" s="5">
+        <v>4</v>
+      </c>
+      <c r="K13" s="5">
+        <v>4</v>
+      </c>
+      <c r="L13" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="B15" s="25"/>
+      <c r="C15" s="25"/>
+      <c r="D15" s="25"/>
+      <c r="E15" s="25"/>
+      <c r="F15" s="25"/>
+      <c r="G15" s="25"/>
+      <c r="H15" s="25"/>
+      <c r="I15" s="25"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="H16" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="I16" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" s="7">
+        <v>1</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="E17" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="I9" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="J9" s="16" t="s">
+      <c r="F17" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="G17" s="7">
+        <v>1</v>
+      </c>
+      <c r="H17" s="7">
+        <v>1</v>
+      </c>
+      <c r="I17" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" s="7">
+        <v>2</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="G18" s="7">
+        <v>2</v>
+      </c>
+      <c r="H18" s="7">
+        <v>2</v>
+      </c>
+      <c r="I18" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="B21" s="26"/>
+      <c r="D21" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="E21" s="22"/>
+      <c r="G21" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="H21" s="23"/>
+      <c r="J21" s="21" t="s">
+        <v>87</v>
+      </c>
+      <c r="K21" s="21"/>
+      <c r="L21" s="21"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="G22" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="H22" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="J22" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="K22" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="L22" s="11" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" s="8">
+        <v>1</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D23" s="9">
+        <v>1</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="G23" s="10">
+        <v>1</v>
+      </c>
+      <c r="H23" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="J23" s="11">
+        <v>1</v>
+      </c>
+      <c r="K23" s="11">
+        <v>1</v>
+      </c>
+      <c r="L23" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" s="8">
+        <v>2</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D24" s="9">
+        <v>2</v>
+      </c>
+      <c r="E24" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="G24" s="10">
+        <v>2</v>
+      </c>
+      <c r="H24" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="J24" s="11">
+        <v>2</v>
+      </c>
+      <c r="K24" s="11">
+        <v>2</v>
+      </c>
+      <c r="L24" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" s="8">
+        <v>3</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D25" s="9">
+        <v>3</v>
+      </c>
+      <c r="E25" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="G25" s="10">
+        <v>3</v>
+      </c>
+      <c r="H25" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="J25" s="11">
+        <v>3</v>
+      </c>
+      <c r="K25" s="11">
+        <v>3</v>
+      </c>
+      <c r="L25" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" s="8">
+        <v>4</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="G26" s="10">
+        <v>4</v>
+      </c>
+      <c r="H26" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="J26" s="11">
+        <v>4</v>
+      </c>
+      <c r="K26" s="11">
+        <v>4</v>
+      </c>
+      <c r="L26" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="G27" s="10">
+        <v>5</v>
+      </c>
+      <c r="H27" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="J27" s="11">
+        <v>5</v>
+      </c>
+      <c r="K27" s="11">
+        <v>5</v>
+      </c>
+      <c r="L27" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="B28" s="20"/>
+      <c r="C28" s="20"/>
+      <c r="G28" s="10">
+        <v>6</v>
+      </c>
+      <c r="H28" s="10" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="B29" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="C29" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G29" s="10">
+        <v>7</v>
+      </c>
+      <c r="H29" s="10" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30" s="12">
+        <v>1</v>
+      </c>
+      <c r="B30" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="C30" s="12">
+        <v>3</v>
+      </c>
+      <c r="G30" s="10">
         <v>8</v>
       </c>
-      <c r="K9" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="L9" s="16" t="s">
+      <c r="H30" s="10" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31" s="12">
+        <v>2</v>
+      </c>
+      <c r="B31" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="C31" s="12">
+        <v>4</v>
+      </c>
+      <c r="G31" s="10">
+        <v>9</v>
+      </c>
+      <c r="H31" s="10" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="G32" s="10">
+        <v>10</v>
+      </c>
+      <c r="H32" s="10" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="B33" s="28"/>
+      <c r="C33" s="28"/>
+      <c r="D33" s="28"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="5">
+        <v>1</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C35" s="5">
+        <v>1</v>
+      </c>
+      <c r="D35" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="13">
+        <v>2</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C36" s="5">
+        <v>2</v>
+      </c>
+      <c r="D36" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="B38" s="17"/>
+      <c r="C38" s="17"/>
+      <c r="E38" s="18" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="16">
-        <v>1</v>
-      </c>
-      <c r="B10" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="C10" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="D10" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="E10" s="16">
-        <v>231</v>
-      </c>
-      <c r="F10" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="G10" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="H10" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="I10" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="J10" s="16">
-        <v>1</v>
-      </c>
-      <c r="K10" s="16">
-        <v>1</v>
-      </c>
-      <c r="L10" s="16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="16">
-        <v>2</v>
-      </c>
-      <c r="B11" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="C11" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="D11" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="E11" s="16">
-        <v>341</v>
-      </c>
-      <c r="F11" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="G11" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="H11" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="I11" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="J11" s="16">
-        <v>1</v>
-      </c>
-      <c r="K11" s="16">
-        <v>2</v>
-      </c>
-      <c r="L11" s="16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="16">
-        <v>3</v>
-      </c>
-      <c r="B12" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="C12" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="D12" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="E12" s="16">
-        <v>234</v>
-      </c>
-      <c r="F12" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="G12" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="H12" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="I12" s="16" t="s">
-        <v>75</v>
-      </c>
-      <c r="J12" s="16">
-        <v>3</v>
-      </c>
-      <c r="K12" s="16">
-        <v>3</v>
-      </c>
-      <c r="L12" s="16">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="16">
-        <v>4</v>
-      </c>
-      <c r="B13" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="C13" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="D13" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="E13" s="16">
-        <v>543</v>
-      </c>
-      <c r="F13" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="G13" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="H13" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="I13" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="J13" s="16">
-        <v>4</v>
-      </c>
-      <c r="K13" s="16">
-        <v>4</v>
-      </c>
-      <c r="L13" s="16">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="7"/>
-      <c r="J15" s="7"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="B16" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="C16" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="D16" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="E16" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="F16" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="G16" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="H16" s="18" t="s">
-        <v>84</v>
-      </c>
-      <c r="I16" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="J16" s="18" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" s="18">
-        <v>1</v>
-      </c>
-      <c r="B17" s="18" t="s">
-        <v>89</v>
-      </c>
-      <c r="C17" s="18" t="s">
-        <v>85</v>
-      </c>
-      <c r="D17" s="18" t="s">
-        <v>87</v>
-      </c>
-      <c r="E17" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="F17" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="G17" s="18">
-        <v>1</v>
-      </c>
-      <c r="H17" s="18">
-        <v>13124124</v>
-      </c>
-      <c r="I17" s="18">
-        <v>1</v>
-      </c>
-      <c r="J17" s="18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="18">
-        <v>2</v>
-      </c>
-      <c r="B18" s="18" t="s">
-        <v>90</v>
-      </c>
-      <c r="C18" s="18" t="s">
-        <v>86</v>
-      </c>
-      <c r="D18" s="18" t="s">
-        <v>88</v>
-      </c>
-      <c r="E18" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="F18" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="G18" s="18">
-        <v>2</v>
-      </c>
-      <c r="H18" s="18">
-        <v>12312412414</v>
-      </c>
-      <c r="I18" s="18">
-        <v>2</v>
-      </c>
-      <c r="J18" s="18">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B21" s="2"/>
-      <c r="D21" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="E21" s="9"/>
-      <c r="G21" s="27" t="s">
-        <v>77</v>
-      </c>
-      <c r="H21" s="27"/>
-      <c r="J21" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="K21" s="10"/>
-      <c r="L21" s="10"/>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="B22" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="D22" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="E22" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="G22" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="H22" s="21" t="s">
-        <v>78</v>
-      </c>
-      <c r="J22" s="22" t="s">
-        <v>92</v>
-      </c>
-      <c r="K22" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="L22" s="22" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" s="19">
-        <v>1</v>
-      </c>
-      <c r="B23" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="D23" s="20">
-        <v>1</v>
-      </c>
-      <c r="E23" s="20" t="s">
-        <v>104</v>
-      </c>
-      <c r="G23" s="21">
-        <v>1</v>
-      </c>
-      <c r="H23" s="21" t="s">
-        <v>94</v>
-      </c>
-      <c r="J23" s="22">
-        <v>1</v>
-      </c>
-      <c r="K23" s="22">
-        <v>1</v>
-      </c>
-      <c r="L23" s="22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" s="19">
-        <v>2</v>
-      </c>
-      <c r="B24" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="D24" s="20">
-        <v>2</v>
-      </c>
-      <c r="E24" s="20" t="s">
+      <c r="F38" s="18"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="B39" s="14" t="s">
         <v>105</v>
       </c>
-      <c r="G24" s="21">
-        <v>2</v>
-      </c>
-      <c r="H24" s="21" t="s">
-        <v>95</v>
-      </c>
-      <c r="J24" s="22">
-        <v>2</v>
-      </c>
-      <c r="K24" s="22">
-        <v>2</v>
-      </c>
-      <c r="L24" s="22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" s="19">
-        <v>3</v>
-      </c>
-      <c r="B25" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="D25" s="20">
-        <v>3</v>
-      </c>
-      <c r="E25" s="20" t="s">
+      <c r="C39" s="14" t="s">
         <v>106</v>
       </c>
-      <c r="G25" s="21">
-        <v>3</v>
-      </c>
-      <c r="H25" s="21" t="s">
-        <v>96</v>
-      </c>
-      <c r="J25" s="22">
-        <v>3</v>
-      </c>
-      <c r="K25" s="22">
-        <v>3</v>
-      </c>
-      <c r="L25" s="22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" s="19">
-        <v>4</v>
-      </c>
-      <c r="B26" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="G26" s="21">
-        <v>4</v>
-      </c>
-      <c r="H26" s="21" t="s">
-        <v>97</v>
-      </c>
-      <c r="J26" s="22">
-        <v>4</v>
-      </c>
-      <c r="K26" s="22">
-        <v>4</v>
-      </c>
-      <c r="L26" s="22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="G27" s="21">
-        <v>5</v>
-      </c>
-      <c r="H27" s="21" t="s">
-        <v>98</v>
-      </c>
-      <c r="J27" s="22">
-        <v>5</v>
-      </c>
-      <c r="K27" s="22">
-        <v>5</v>
-      </c>
-      <c r="L27" s="22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A28" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="B28" s="8"/>
-      <c r="C28" s="8"/>
-      <c r="G28" s="21">
-        <v>6</v>
-      </c>
-      <c r="H28" s="21" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A29" s="23" t="s">
-        <v>79</v>
-      </c>
-      <c r="B29" s="23" t="s">
-        <v>81</v>
-      </c>
-      <c r="C29" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="G29" s="21">
-        <v>7</v>
-      </c>
-      <c r="H29" s="21" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A30" s="23">
-        <v>1</v>
-      </c>
-      <c r="B30" s="23" t="s">
-        <v>82</v>
-      </c>
-      <c r="C30" s="23">
-        <v>3</v>
-      </c>
-      <c r="G30" s="21">
-        <v>8</v>
-      </c>
-      <c r="H30" s="21" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A31" s="23">
-        <v>2</v>
-      </c>
-      <c r="B31" s="23" t="s">
-        <v>83</v>
-      </c>
-      <c r="C31" s="23">
-        <v>4</v>
-      </c>
-      <c r="G31" s="21">
-        <v>9</v>
-      </c>
-      <c r="H31" s="21" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="G32" s="21">
-        <v>10</v>
-      </c>
-      <c r="H32" s="21" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="B33" s="11"/>
-      <c r="C33" s="11"/>
-      <c r="D33" s="11"/>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="B34" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="C34" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="D34" s="16" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="16">
-        <v>1</v>
-      </c>
-      <c r="B35" s="16">
-        <v>2312412</v>
-      </c>
-      <c r="C35" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="D35" s="16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="24">
-        <v>2</v>
-      </c>
-      <c r="B36" s="24">
-        <v>31241241</v>
-      </c>
-      <c r="C36" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="D36" s="16">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="12" t="s">
+      <c r="E39" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="F39" s="15" t="s">
         <v>108</v>
       </c>
-      <c r="B38" s="12"/>
-      <c r="C38" s="12"/>
-      <c r="E38" s="4" t="s">
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="14">
+        <v>1</v>
+      </c>
+      <c r="B40" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="C40" s="14">
+        <v>1</v>
+      </c>
+      <c r="E40" s="15">
+        <v>1</v>
+      </c>
+      <c r="F40" s="15" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="14">
+        <v>2</v>
+      </c>
+      <c r="B41" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="C41" s="14">
+        <v>2</v>
+      </c>
+      <c r="E41" s="15">
+        <v>2</v>
+      </c>
+      <c r="F41" s="15" t="s">
         <v>111</v>
-      </c>
-      <c r="F38" s="4"/>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="25" t="s">
-        <v>107</v>
-      </c>
-      <c r="B39" s="25" t="s">
-        <v>109</v>
-      </c>
-      <c r="C39" s="25" t="s">
-        <v>110</v>
-      </c>
-      <c r="E39" s="26" t="s">
-        <v>110</v>
-      </c>
-      <c r="F39" s="26" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="25">
-        <v>1</v>
-      </c>
-      <c r="B40" s="25" t="s">
-        <v>113</v>
-      </c>
-      <c r="C40" s="25">
-        <v>1</v>
-      </c>
-      <c r="E40" s="26">
-        <v>1</v>
-      </c>
-      <c r="F40" s="26" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="25">
-        <v>2</v>
-      </c>
-      <c r="B41" s="25" t="s">
-        <v>114</v>
-      </c>
-      <c r="C41" s="25">
-        <v>2</v>
-      </c>
-      <c r="E41" s="26">
-        <v>2</v>
-      </c>
-      <c r="F41" s="26" t="s">
-        <v>115</v>
       </c>
     </row>
   </sheetData>
@@ -1783,10 +1793,10 @@
     <mergeCell ref="D21:E21"/>
     <mergeCell ref="G21:H21"/>
     <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A15:J15"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="G1:M1"/>
+    <mergeCell ref="A15:I15"/>
     <mergeCell ref="A33:D33"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="G1:K1"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B10" r:id="rId1" xr:uid="{E8914A0F-EF4D-4FE4-8624-2E5D3922E59D}"/>
